--- a/db/load/cdisc/sdtm_ig/sdtm_ig_3-1-3.xlsx
+++ b/db/load/cdisc/sdtm_ig/sdtm_ig_3-1-3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/sdtm_ig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD381329-783E-2C47-AEC5-67F4F9D9FD96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65D58B6-5C1F-1B44-B3C5-431F7896C3B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38740" yWindow="460" windowWidth="36680" windowHeight="19880" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="36000" windowHeight="20240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDTM 1.3 SDTMIG 3.1.3" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,10 @@
   </definedNames>
   <calcPr calcId="140001"/>
   <customWorkbookViews>
+    <customWorkbookView name="jchason - Personal View" guid="{856B09C9-8B94-4346-8227-95762479F1DB}" mergeInterval="0" personalView="1" xWindow="47" windowWidth="1871" windowHeight="1040" tabRatio="860" activeSheetId="1"/>
+    <customWorkbookView name="Wayne Kubick - Personal View" guid="{9CA9EE55-9E60-CF4D-8BDE-A47B53F67DC9}" mergeInterval="0" personalView="1" xWindow="407" yWindow="54" windowWidth="1037" windowHeight="722" tabRatio="860" activeSheetId="1"/>
+    <customWorkbookView name="Amy - Personal View" guid="{3D2B6433-1329-44FB-B7DE-D24CF7109B21}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1362" windowHeight="538" tabRatio="860" activeSheetId="1"/>
     <customWorkbookView name="Anthony Chow - Personal View" guid="{82D46257-41BF-4117-B40B-1A01981D3099}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1688" yWindow="-8" windowWidth="1696" windowHeight="1036" tabRatio="860" activeSheetId="1"/>
-    <customWorkbookView name="Amy - Personal View" guid="{3D2B6433-1329-44FB-B7DE-D24CF7109B21}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1362" windowHeight="538" tabRatio="860" activeSheetId="1"/>
-    <customWorkbookView name="Wayne Kubick - Personal View" guid="{9CA9EE55-9E60-CF4D-8BDE-A47B53F67DC9}" mergeInterval="0" personalView="1" xWindow="407" yWindow="54" windowWidth="1037" windowHeight="722" tabRatio="860" activeSheetId="1"/>
-    <customWorkbookView name="jchason - Personal View" guid="{856B09C9-8B94-4346-8227-95762479F1DB}" mergeInterval="0" personalView="1" xWindow="47" windowWidth="1871" windowHeight="1040" tabRatio="860" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -7480,7 +7480,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -7507,6 +7507,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="84">
@@ -8000,8 +8003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S969"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="H407" sqref="H407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8012,7 +8015,7 @@
     <col min="4" max="5" width="17.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" style="11" customWidth="1"/>
     <col min="9" max="9" width="26.5" style="3" customWidth="1"/>
     <col min="10" max="10" width="63.33203125" style="3" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
@@ -8803,7 +8806,7 @@
       <c r="G30" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="11" t="s">
         <v>2048</v>
       </c>
       <c r="I30" s="3" t="s">
@@ -8832,7 +8835,7 @@
       <c r="G31" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="11" t="s">
         <v>2048</v>
       </c>
       <c r="I31" s="3" t="s">
@@ -8887,7 +8890,7 @@
       <c r="G33" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="11" t="s">
         <v>2048</v>
       </c>
       <c r="I33" s="3" t="s">
@@ -8916,7 +8919,7 @@
       <c r="G34" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="11" t="s">
         <v>2048</v>
       </c>
       <c r="I34" s="3" t="s">
@@ -8945,7 +8948,7 @@
       <c r="G35" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="11" t="s">
         <v>2048</v>
       </c>
       <c r="I35" s="3" t="s">
@@ -8974,7 +8977,7 @@
       <c r="G36" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="11" t="s">
         <v>2048</v>
       </c>
       <c r="I36" s="3" t="s">
@@ -9003,7 +9006,7 @@
       <c r="G37" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="11" t="s">
         <v>2048</v>
       </c>
       <c r="I37" s="3" t="s">
@@ -9214,7 +9217,7 @@
       <c r="G45" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="11" t="s">
         <v>2048</v>
       </c>
       <c r="I45" s="3" t="s">
@@ -9243,7 +9246,7 @@
       <c r="G46" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="11" t="s">
         <v>2048</v>
       </c>
       <c r="I46" s="3" t="s">
@@ -9272,7 +9275,7 @@
       <c r="G47" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="11" t="s">
         <v>2048</v>
       </c>
       <c r="I47" s="3" t="s">
@@ -11485,7 +11488,7 @@
       <c r="G132" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H132" s="3" t="s">
+      <c r="H132" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I132" s="3" t="s">
@@ -11514,7 +11517,7 @@
       <c r="G133" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H133" s="3" t="s">
+      <c r="H133" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I133" s="3" t="s">
@@ -11543,7 +11546,7 @@
       <c r="G134" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H134" s="3" t="s">
+      <c r="H134" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I134" s="3" t="s">
@@ -11650,7 +11653,7 @@
       <c r="G138" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H138" s="3" t="s">
+      <c r="H138" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I138" s="3" t="s">
@@ -11783,7 +11786,7 @@
       <c r="G143" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H143" s="3" t="s">
+      <c r="H143" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I143" s="3" t="s">
@@ -11864,7 +11867,7 @@
       <c r="G146" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H146" s="3" t="s">
+      <c r="H146" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I146" s="3" t="s">
@@ -12058,7 +12061,7 @@
       <c r="G153" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H153" s="3" t="s">
+      <c r="H153" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I153" s="3" t="s">
@@ -12157,7 +12160,7 @@
       <c r="G156" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H156" s="3" t="s">
+      <c r="H156" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I156" s="3" t="s">
@@ -12192,7 +12195,7 @@
       <c r="G157" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H157" s="3" t="s">
+      <c r="H157" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I157" s="3" t="s">
@@ -12227,7 +12230,7 @@
       <c r="G158" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H158" s="3" t="s">
+      <c r="H158" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I158" s="3" t="s">
@@ -12262,7 +12265,7 @@
       <c r="G159" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H159" s="3" t="s">
+      <c r="H159" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I159" s="3" t="s">
@@ -12297,7 +12300,7 @@
       <c r="G160" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H160" s="3" t="s">
+      <c r="H160" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I160" s="3" t="s">
@@ -12332,7 +12335,7 @@
       <c r="G161" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H161" s="3" t="s">
+      <c r="H161" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I161" s="3" t="s">
@@ -12367,7 +12370,7 @@
       <c r="G162" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H162" s="3" t="s">
+      <c r="H162" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I162" s="3" t="s">
@@ -12402,7 +12405,7 @@
       <c r="G163" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H163" s="3" t="s">
+      <c r="H163" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I163" s="3" t="s">
@@ -12533,7 +12536,7 @@
       <c r="G167" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H167" s="3" t="s">
+      <c r="H167" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I167" s="3" t="s">
@@ -12600,7 +12603,7 @@
       <c r="G169" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H169" s="3" t="s">
+      <c r="H169" s="11" t="s">
         <v>1185</v>
       </c>
       <c r="I169" s="3" t="s">
@@ -12635,7 +12638,7 @@
       <c r="G170" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H170" s="3" t="s">
+      <c r="H170" s="11" t="s">
         <v>438</v>
       </c>
       <c r="I170" s="3" t="s">
@@ -12670,7 +12673,7 @@
       <c r="G171" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H171" s="3" t="s">
+      <c r="H171" s="11" t="s">
         <v>440</v>
       </c>
       <c r="I171" s="3" t="s">
@@ -12705,7 +12708,7 @@
       <c r="G172" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H172" s="3" t="s">
+      <c r="H172" s="11" t="s">
         <v>1186</v>
       </c>
       <c r="I172" s="3" t="s">
@@ -12868,7 +12871,7 @@
       <c r="G177" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H177" s="3" t="s">
+      <c r="H177" s="11" t="s">
         <v>887</v>
       </c>
       <c r="I177" s="3" t="s">
@@ -12903,7 +12906,7 @@
       <c r="G178" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H178" s="3" t="s">
+      <c r="H178" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I178" s="3" t="s">
@@ -13002,7 +13005,7 @@
       <c r="G181" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H181" s="3" t="s">
+      <c r="H181" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I181" s="3" t="s">
@@ -13293,7 +13296,7 @@
       <c r="G190" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H190" s="3" t="s">
+      <c r="H190" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I190" s="3" t="s">
@@ -13360,7 +13363,7 @@
       <c r="G192" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H192" s="3" t="s">
+      <c r="H192" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I192" s="3" t="s">
@@ -13523,7 +13526,7 @@
       <c r="G197" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H197" s="3" t="s">
+      <c r="H197" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I197" s="3" t="s">
@@ -13558,7 +13561,7 @@
       <c r="G198" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H198" s="3" t="s">
+      <c r="H198" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I198" s="3" t="s">
@@ -13721,7 +13724,7 @@
       <c r="G203" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H203" s="3" t="s">
+      <c r="H203" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I203" s="3" t="s">
@@ -13884,7 +13887,7 @@
       <c r="G208" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H208" s="3" t="s">
+      <c r="H208" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I208" s="3" t="s">
@@ -13919,7 +13922,7 @@
       <c r="G209" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H209" s="3" t="s">
+      <c r="H209" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I209" s="3" t="s">
@@ -14082,7 +14085,7 @@
       <c r="G214" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H214" s="3" t="s">
+      <c r="H214" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I214" s="3" t="s">
@@ -14405,7 +14408,7 @@
       <c r="G224" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H224" s="3" t="s">
+      <c r="H224" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I224" s="3" t="s">
@@ -14440,7 +14443,7 @@
       <c r="G225" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H225" s="3" t="s">
+      <c r="H225" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I225" s="3" t="s">
@@ -14475,7 +14478,7 @@
       <c r="G226" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H226" s="3" t="s">
+      <c r="H226" s="11" t="s">
         <v>1188</v>
       </c>
       <c r="I226" s="3" t="s">
@@ -14702,7 +14705,7 @@
       <c r="G233" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H233" s="3" t="s">
+      <c r="H233" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I233" s="3" t="s">
@@ -14737,7 +14740,7 @@
       <c r="G234" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H234" s="3" t="s">
+      <c r="H234" s="11" t="s">
         <v>1189</v>
       </c>
       <c r="I234" s="3" t="s">
@@ -14772,7 +14775,7 @@
       <c r="G235" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H235" s="3" t="s">
+      <c r="H235" s="11" t="s">
         <v>476</v>
       </c>
       <c r="I235" s="3" t="s">
@@ -14871,7 +14874,7 @@
       <c r="G238" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H238" s="3" t="s">
+      <c r="H238" s="11" t="s">
         <v>1201</v>
       </c>
       <c r="I238" s="3" t="s">
@@ -14906,7 +14909,7 @@
       <c r="G239" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H239" s="3" t="s">
+      <c r="H239" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I239" s="3" t="s">
@@ -14938,7 +14941,7 @@
       <c r="G240" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H240" s="3" t="s">
+      <c r="H240" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I240" s="3" t="s">
@@ -15034,7 +15037,7 @@
       <c r="G243" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H243" s="3" t="s">
+      <c r="H243" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I243" s="3" t="s">
@@ -15069,7 +15072,7 @@
       <c r="G244" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H244" s="3" t="s">
+      <c r="H244" s="11" t="s">
         <v>1171</v>
       </c>
       <c r="I244" s="3" t="s">
@@ -15104,7 +15107,7 @@
       <c r="G245" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H245" s="3" t="s">
+      <c r="H245" s="11" t="s">
         <v>1171</v>
       </c>
       <c r="I245" s="3" t="s">
@@ -15139,7 +15142,7 @@
       <c r="G246" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H246" s="3" t="s">
+      <c r="H246" s="11" t="s">
         <v>1716</v>
       </c>
       <c r="I246" s="3" t="s">
@@ -15206,7 +15209,7 @@
       <c r="G248" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H248" s="3" t="s">
+      <c r="H248" s="11" t="s">
         <v>1008</v>
       </c>
       <c r="I248" s="3" t="s">
@@ -15305,7 +15308,7 @@
       <c r="G251" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H251" s="3" t="s">
+      <c r="H251" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I251" s="3" t="s">
@@ -15628,7 +15631,7 @@
       <c r="G261" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H261" s="3" t="s">
+      <c r="H261" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I261" s="3" t="s">
@@ -15663,7 +15666,7 @@
       <c r="G262" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H262" s="3" t="s">
+      <c r="H262" s="11" t="s">
         <v>1189</v>
       </c>
       <c r="I262" s="3" t="s">
@@ -15698,7 +15701,7 @@
       <c r="G263" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H263" s="3" t="s">
+      <c r="H263" s="11" t="s">
         <v>476</v>
       </c>
       <c r="I263" s="3" t="s">
@@ -15797,7 +15800,7 @@
       <c r="G266" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H266" s="3" t="s">
+      <c r="H266" s="11" t="s">
         <v>1201</v>
       </c>
       <c r="I266" s="3" t="s">
@@ -15864,7 +15867,7 @@
       <c r="G268" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H268" s="3" t="s">
+      <c r="H268" s="11" t="s">
         <v>565</v>
       </c>
       <c r="I268" s="3" t="s">
@@ -15963,7 +15966,7 @@
       <c r="G271" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H271" s="3" t="s">
+      <c r="H271" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I271" s="3" t="s">
@@ -16094,7 +16097,7 @@
       <c r="G275" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H275" s="3" t="s">
+      <c r="H275" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I275" s="3" t="s">
@@ -16129,7 +16132,7 @@
       <c r="G276" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H276" s="3" t="s">
+      <c r="H276" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I276" s="3" t="s">
@@ -16228,7 +16231,7 @@
       <c r="G279" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H279" s="3" t="s">
+      <c r="H279" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I279" s="3" t="s">
@@ -16327,7 +16330,7 @@
       <c r="G282" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H282" s="3" t="s">
+      <c r="H282" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I282" s="3" t="s">
@@ -16426,7 +16429,7 @@
       <c r="G285" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H285" s="3" t="s">
+      <c r="H285" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I285" s="3" t="s">
@@ -16749,7 +16752,7 @@
       <c r="G295" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H295" s="3" t="s">
+      <c r="H295" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I295" s="3" t="s">
@@ -16784,7 +16787,7 @@
       <c r="G296" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H296" s="3" t="s">
+      <c r="H296" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I296" s="3" t="s">
@@ -16819,7 +16822,7 @@
       <c r="G297" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H297" s="3" t="s">
+      <c r="H297" s="11" t="s">
         <v>1188</v>
       </c>
       <c r="I297" s="3" t="s">
@@ -17014,7 +17017,7 @@
       <c r="G303" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H303" s="3" t="s">
+      <c r="H303" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I303" s="3" t="s">
@@ -17081,7 +17084,7 @@
       <c r="G305" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H305" s="3" t="s">
+      <c r="H305" s="11" t="s">
         <v>476</v>
       </c>
       <c r="I305" s="3" t="s">
@@ -17148,7 +17151,7 @@
       <c r="G307" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H307" s="3" t="s">
+      <c r="H307" s="11" t="s">
         <v>1201</v>
       </c>
       <c r="I307" s="3" t="s">
@@ -17183,7 +17186,7 @@
       <c r="G308" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H308" s="3" t="s">
+      <c r="H308" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I308" s="3" t="s">
@@ -17215,7 +17218,7 @@
       <c r="G309" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H309" s="3" t="s">
+      <c r="H309" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I309" s="3" t="s">
@@ -17311,7 +17314,7 @@
       <c r="G312" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H312" s="3" t="s">
+      <c r="H312" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I312" s="3" t="s">
@@ -17346,7 +17349,7 @@
       <c r="G313" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H313" s="3" t="s">
+      <c r="H313" s="11" t="s">
         <v>1171</v>
       </c>
       <c r="I313" s="3" t="s">
@@ -17381,7 +17384,7 @@
       <c r="G314" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H314" s="3" t="s">
+      <c r="H314" s="11" t="s">
         <v>1171</v>
       </c>
       <c r="I314" s="3" t="s">
@@ -17416,7 +17419,7 @@
       <c r="G315" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H315" s="3" t="s">
+      <c r="H315" s="11" t="s">
         <v>1716</v>
       </c>
       <c r="I315" s="3" t="s">
@@ -17483,7 +17486,7 @@
       <c r="G317" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H317" s="3" t="s">
+      <c r="H317" s="11" t="s">
         <v>1008</v>
       </c>
       <c r="I317" s="3" t="s">
@@ -17582,7 +17585,7 @@
       <c r="G320" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H320" s="3" t="s">
+      <c r="H320" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I320" s="3" t="s">
@@ -17841,7 +17844,7 @@
       <c r="G328" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H328" s="3" t="s">
+      <c r="H328" s="11" t="s">
         <v>2048</v>
       </c>
       <c r="I328" s="3" t="s">
@@ -17876,7 +17879,7 @@
       <c r="G329" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="H329" s="3" t="s">
+      <c r="H329" s="11" t="s">
         <v>2048</v>
       </c>
       <c r="I329" s="3" t="s">
@@ -17943,7 +17946,7 @@
       <c r="G331" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="H331" s="3" t="s">
+      <c r="H331" s="11" t="s">
         <v>2048</v>
       </c>
       <c r="I331" s="3" t="s">
@@ -17978,7 +17981,7 @@
       <c r="G332" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H332" s="3" t="s">
+      <c r="H332" s="11" t="s">
         <v>2048</v>
       </c>
       <c r="I332" s="3" t="s">
@@ -18013,7 +18016,7 @@
       <c r="G333" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="H333" s="3" t="s">
+      <c r="H333" s="11" t="s">
         <v>2048</v>
       </c>
       <c r="I333" s="3" t="s">
@@ -18048,7 +18051,7 @@
       <c r="G334" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H334" s="3" t="s">
+      <c r="H334" s="11" t="s">
         <v>2048</v>
       </c>
       <c r="I334" s="3" t="s">
@@ -18083,7 +18086,7 @@
       <c r="G335" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="H335" s="3" t="s">
+      <c r="H335" s="11" t="s">
         <v>2048</v>
       </c>
       <c r="I335" s="3" t="s">
@@ -18182,7 +18185,7 @@
       <c r="G338" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H338" s="3" t="s">
+      <c r="H338" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I338" s="3" t="s">
@@ -18249,7 +18252,7 @@
       <c r="G340" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="H340" s="3" t="s">
+      <c r="H340" s="11" t="s">
         <v>2048</v>
       </c>
       <c r="I340" s="3" t="s">
@@ -18284,7 +18287,7 @@
       <c r="G341" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H341" s="3" t="s">
+      <c r="H341" s="11" t="s">
         <v>2048</v>
       </c>
       <c r="I341" s="3" t="s">
@@ -18319,7 +18322,7 @@
       <c r="G342" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="H342" s="3" t="s">
+      <c r="H342" s="11" t="s">
         <v>2048</v>
       </c>
       <c r="I342" s="3" t="s">
@@ -18354,7 +18357,7 @@
       <c r="G343" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H343" s="3" t="s">
+      <c r="H343" s="11" t="s">
         <v>565</v>
       </c>
       <c r="I343" s="3" t="s">
@@ -18389,7 +18392,7 @@
       <c r="G344" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H344" s="3" t="s">
+      <c r="H344" s="11" t="s">
         <v>1190</v>
       </c>
       <c r="I344" s="3" t="s">
@@ -18424,7 +18427,7 @@
       <c r="G345" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H345" s="3" t="s">
+      <c r="H345" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I345" s="3" t="s">
@@ -18459,7 +18462,7 @@
       <c r="G346" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H346" s="3" t="s">
+      <c r="H346" s="11" t="s">
         <v>1191</v>
       </c>
       <c r="I346" s="3" t="s">
@@ -18622,7 +18625,7 @@
       <c r="G351" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H351" s="3" t="s">
+      <c r="H351" s="11" t="s">
         <v>1192</v>
       </c>
       <c r="I351" s="3" t="s">
@@ -18657,7 +18660,7 @@
       <c r="G352" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H352" s="3" t="s">
+      <c r="H352" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I352" s="3" t="s">
@@ -18692,7 +18695,7 @@
       <c r="G353" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H353" s="3" t="s">
+      <c r="H353" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I353" s="3" t="s">
@@ -18727,7 +18730,7 @@
       <c r="G354" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H354" s="3" t="s">
+      <c r="H354" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I354" s="3" t="s">
@@ -18762,7 +18765,7 @@
       <c r="G355" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H355" s="3" t="s">
+      <c r="H355" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I355" s="3" t="s">
@@ -18797,7 +18800,7 @@
       <c r="G356" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H356" s="3" t="s">
+      <c r="H356" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I356" s="3" t="s">
@@ -18832,7 +18835,7 @@
       <c r="G357" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H357" s="3" t="s">
+      <c r="H357" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I357" s="3" t="s">
@@ -18867,7 +18870,7 @@
       <c r="G358" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H358" s="3" t="s">
+      <c r="H358" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I358" s="3" t="s">
@@ -18902,7 +18905,7 @@
       <c r="G359" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H359" s="3" t="s">
+      <c r="H359" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I359" s="3" t="s">
@@ -18937,7 +18940,7 @@
       <c r="G360" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H360" s="3" t="s">
+      <c r="H360" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I360" s="3" t="s">
@@ -19004,7 +19007,7 @@
       <c r="G362" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H362" s="3" t="s">
+      <c r="H362" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I362" s="3" t="s">
@@ -19036,7 +19039,7 @@
       <c r="G363" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H363" s="3" t="s">
+      <c r="H363" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I363" s="3" t="s">
@@ -19132,7 +19135,7 @@
       <c r="G366" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H366" s="3" t="s">
+      <c r="H366" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I366" s="3" t="s">
@@ -19167,7 +19170,7 @@
       <c r="G367" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H367" s="3" t="s">
+      <c r="H367" s="11" t="s">
         <v>1171</v>
       </c>
       <c r="I367" s="3" t="s">
@@ -19202,7 +19205,7 @@
       <c r="G368" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H368" s="3" t="s">
+      <c r="H368" s="11" t="s">
         <v>1174</v>
       </c>
       <c r="I368" s="3" t="s">
@@ -19301,7 +19304,7 @@
       <c r="G371" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H371" s="3" t="s">
+      <c r="H371" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I371" s="3" t="s">
@@ -19528,7 +19531,7 @@
       <c r="G378" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H378" s="3" t="s">
+      <c r="H378" s="11" t="s">
         <v>1193</v>
       </c>
       <c r="I378" s="3" t="s">
@@ -19563,7 +19566,7 @@
       <c r="G379" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H379" s="3" t="s">
+      <c r="H379" s="11" t="s">
         <v>629</v>
       </c>
       <c r="I379" s="3" t="s">
@@ -19662,7 +19665,7 @@
       <c r="G382" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H382" s="3" t="s">
+      <c r="H382" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I382" s="3" t="s">
@@ -19694,7 +19697,7 @@
       <c r="G383" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H383" s="3" t="s">
+      <c r="H383" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I383" s="3" t="s">
@@ -19790,7 +19793,7 @@
       <c r="G386" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H386" s="3" t="s">
+      <c r="H386" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I386" s="3" t="s">
@@ -20145,7 +20148,7 @@
       <c r="G397" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H397" s="3" t="s">
+      <c r="H397" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I397" s="3" t="s">
@@ -20180,7 +20183,7 @@
       <c r="G398" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H398" s="3" t="s">
+      <c r="H398" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I398" s="3" t="s">
@@ -20215,7 +20218,7 @@
       <c r="G399" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H399" s="3" t="s">
+      <c r="H399" s="11" t="s">
         <v>1188</v>
       </c>
       <c r="I399" s="3" t="s">
@@ -20314,7 +20317,7 @@
       <c r="G402" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H402" s="3" t="s">
+      <c r="H402" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I402" s="3" t="s">
@@ -20346,7 +20349,7 @@
       <c r="G403" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H403" s="3" t="s">
+      <c r="H403" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I403" s="3" t="s">
@@ -20378,7 +20381,7 @@
       <c r="G404" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H404" s="3" t="s">
+      <c r="H404" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I404" s="3" t="s">
@@ -20442,7 +20445,7 @@
       <c r="G406" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H406" s="3" t="s">
+      <c r="H406" s="11" t="s">
         <v>1171</v>
       </c>
       <c r="I406" s="3" t="s">
@@ -20477,7 +20480,7 @@
       <c r="G407" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H407" s="3" t="s">
+      <c r="H407" s="11" t="s">
         <v>1174</v>
       </c>
       <c r="I407" s="3" t="s">
@@ -20576,7 +20579,7 @@
       <c r="G410" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H410" s="3" t="s">
+      <c r="H410" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I410" s="3" t="s">
@@ -20899,7 +20902,7 @@
       <c r="G420" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H420" s="3" t="s">
+      <c r="H420" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I420" s="3" t="s">
@@ -20934,7 +20937,7 @@
       <c r="G421" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H421" s="3" t="s">
+      <c r="H421" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I421" s="3" t="s">
@@ -21001,7 +21004,7 @@
       <c r="G423" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H423" s="3" t="s">
+      <c r="H423" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I423" s="3" t="s">
@@ -21324,7 +21327,7 @@
       <c r="G433" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H433" s="3" t="s">
+      <c r="H433" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I433" s="3" t="s">
@@ -21359,7 +21362,7 @@
       <c r="G434" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H434" s="3" t="s">
+      <c r="H434" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I434" s="3" t="s">
@@ -21394,7 +21397,7 @@
       <c r="G435" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H435" s="3" t="s">
+      <c r="H435" s="11" t="s">
         <v>1188</v>
       </c>
       <c r="I435" s="3" t="s">
@@ -21525,7 +21528,7 @@
       <c r="G439" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H439" s="3" t="s">
+      <c r="H439" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I439" s="3" t="s">
@@ -21557,7 +21560,7 @@
       <c r="G440" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H440" s="3" t="s">
+      <c r="H440" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I440" s="3" t="s">
@@ -21589,7 +21592,7 @@
       <c r="G441" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H441" s="3" t="s">
+      <c r="H441" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I441" s="3" t="s">
@@ -21653,7 +21656,7 @@
       <c r="G443" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H443" s="3" t="s">
+      <c r="H443" s="11" t="s">
         <v>1171</v>
       </c>
       <c r="I443" s="3" t="s">
@@ -21688,7 +21691,7 @@
       <c r="G444" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H444" s="3" t="s">
+      <c r="H444" s="11" t="s">
         <v>1171</v>
       </c>
       <c r="I444" s="3" t="s">
@@ -21723,7 +21726,7 @@
       <c r="G445" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H445" s="3" t="s">
+      <c r="H445" s="11" t="s">
         <v>456</v>
       </c>
       <c r="I445" s="3" t="s">
@@ -21790,7 +21793,7 @@
       <c r="G447" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H447" s="3" t="s">
+      <c r="H447" s="11" t="s">
         <v>1174</v>
       </c>
       <c r="I447" s="3" t="s">
@@ -21889,7 +21892,7 @@
       <c r="G450" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H450" s="3" t="s">
+      <c r="H450" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I450" s="3" t="s">
@@ -22084,7 +22087,7 @@
       <c r="G456" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H456" s="3" t="s">
+      <c r="H456" s="11" t="s">
         <v>1764</v>
       </c>
       <c r="I456" s="3" t="s">
@@ -22119,7 +22122,7 @@
       <c r="G457" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H457" s="3" t="s">
+      <c r="H457" s="11" t="s">
         <v>1765</v>
       </c>
       <c r="I457" s="3" t="s">
@@ -22218,7 +22221,7 @@
       <c r="G460" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H460" s="3" t="s">
+      <c r="H460" s="11" t="s">
         <v>657</v>
       </c>
       <c r="I460" s="3" t="s">
@@ -22285,7 +22288,7 @@
       <c r="G462" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H462" s="3" t="s">
+      <c r="H462" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I462" s="3" t="s">
@@ -22320,7 +22323,7 @@
       <c r="G463" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H463" s="3" t="s">
+      <c r="H463" s="11" t="s">
         <v>2193</v>
       </c>
       <c r="I463" s="3" t="s">
@@ -22387,7 +22390,7 @@
       <c r="G465" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H465" s="3" t="s">
+      <c r="H465" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I465" s="3" t="s">
@@ -22422,7 +22425,7 @@
       <c r="G466" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H466" s="3" t="s">
+      <c r="H466" s="11" t="s">
         <v>1188</v>
       </c>
       <c r="I466" s="3" t="s">
@@ -22553,7 +22556,7 @@
       <c r="G470" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H470" s="3" t="s">
+      <c r="H470" s="11" t="s">
         <v>565</v>
       </c>
       <c r="I470" s="3" t="s">
@@ -22588,7 +22591,7 @@
       <c r="G471" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H471" s="3" t="s">
+      <c r="H471" s="11" t="s">
         <v>667</v>
       </c>
       <c r="I471" s="3" t="s">
@@ -22623,7 +22626,7 @@
       <c r="G472" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H472" s="3" t="s">
+      <c r="H472" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I472" s="3" t="s">
@@ -22658,7 +22661,7 @@
       <c r="G473" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H473" s="3" t="s">
+      <c r="H473" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I473" s="3" t="s">
@@ -22821,7 +22824,7 @@
       <c r="G478" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H478" s="3" t="s">
+      <c r="H478" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I478" s="3" t="s">
@@ -22952,7 +22955,7 @@
       <c r="G482" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H482" s="3" t="s">
+      <c r="H482" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I482" s="3" t="s">
@@ -23019,7 +23022,7 @@
       <c r="G484" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H484" s="3" t="s">
+      <c r="H484" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I484" s="3" t="s">
@@ -23086,7 +23089,7 @@
       <c r="G486" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H486" s="3" t="s">
+      <c r="H486" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I486" s="3" t="s">
@@ -23281,7 +23284,7 @@
       <c r="G492" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H492" s="3" t="s">
+      <c r="H492" s="11" t="s">
         <v>1194</v>
       </c>
       <c r="I492" s="3" t="s">
@@ -23348,7 +23351,7 @@
       <c r="G494" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H494" s="3" t="s">
+      <c r="H494" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I494" s="3" t="s">
@@ -23383,7 +23386,7 @@
       <c r="G495" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H495" s="3" t="s">
+      <c r="H495" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I495" s="3" t="s">
@@ -23514,7 +23517,7 @@
       <c r="G499" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H499" s="3" t="s">
+      <c r="H499" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I499" s="3" t="s">
@@ -23610,7 +23613,7 @@
       <c r="G502" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H502" s="3" t="s">
+      <c r="H502" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I502" s="3" t="s">
@@ -23805,7 +23808,7 @@
       <c r="G508" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H508" s="3" t="s">
+      <c r="H508" s="11" t="s">
         <v>1195</v>
       </c>
       <c r="I508" s="3" t="s">
@@ -23840,7 +23843,7 @@
       <c r="G509" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H509" s="3" t="s">
+      <c r="H509" s="11" t="s">
         <v>1196</v>
       </c>
       <c r="I509" s="3" t="s">
@@ -23971,7 +23974,7 @@
       <c r="G513" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H513" s="3" t="s">
+      <c r="H513" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I513" s="3" t="s">
@@ -24134,7 +24137,7 @@
       <c r="G518" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H518" s="3" t="s">
+      <c r="H518" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I518" s="3" t="s">
@@ -24297,7 +24300,7 @@
       <c r="G523" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H523" s="3" t="s">
+      <c r="H523" s="11" t="s">
         <v>1188</v>
       </c>
       <c r="I523" s="3" t="s">
@@ -24524,7 +24527,7 @@
       <c r="G530" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H530" s="3" t="s">
+      <c r="H530" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I530" s="3" t="s">
@@ -24559,7 +24562,7 @@
       <c r="G531" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H531" s="3" t="s">
+      <c r="H531" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I531" s="3" t="s">
@@ -24594,7 +24597,7 @@
       <c r="G532" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H532" s="3" t="s">
+      <c r="H532" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I532" s="3" t="s">
@@ -24789,7 +24792,7 @@
       <c r="G538" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H538" s="3" t="s">
+      <c r="H538" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I538" s="3" t="s">
@@ -24821,7 +24824,7 @@
       <c r="G539" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H539" s="3" t="s">
+      <c r="H539" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I539" s="3" t="s">
@@ -24949,7 +24952,7 @@
       <c r="G543" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H543" s="3" t="s">
+      <c r="H543" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I543" s="3" t="s">
@@ -25016,7 +25019,7 @@
       <c r="G545" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H545" s="3" t="s">
+      <c r="H545" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I545" s="3" t="s">
@@ -25083,7 +25086,7 @@
       <c r="G547" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H547" s="3" t="s">
+      <c r="H547" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I547" s="3" t="s">
@@ -25470,7 +25473,7 @@
       <c r="G559" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H559" s="3" t="s">
+      <c r="H559" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I559" s="3" t="s">
@@ -25537,7 +25540,7 @@
       <c r="G561" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H561" s="3" t="s">
+      <c r="H561" s="11" t="s">
         <v>1188</v>
       </c>
       <c r="I561" s="3" t="s">
@@ -25604,7 +25607,7 @@
       <c r="G563" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H563" s="3" t="s">
+      <c r="H563" s="11" t="s">
         <v>565</v>
       </c>
       <c r="I563" s="3" t="s">
@@ -25799,7 +25802,7 @@
       <c r="G569" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H569" s="3" t="s">
+      <c r="H569" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I569" s="3" t="s">
@@ -25895,7 +25898,7 @@
       <c r="G572" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H572" s="3" t="s">
+      <c r="H572" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I572" s="3" t="s">
@@ -26218,7 +26221,7 @@
       <c r="G582" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H582" s="3" t="s">
+      <c r="H582" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I582" s="3" t="s">
@@ -26317,7 +26320,7 @@
       <c r="G585" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H585" s="3" t="s">
+      <c r="H585" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I585" s="3" t="s">
@@ -26352,7 +26355,7 @@
       <c r="G586" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H586" s="3" t="s">
+      <c r="H586" s="11" t="s">
         <v>1188</v>
       </c>
       <c r="I586" s="3" t="s">
@@ -26419,7 +26422,7 @@
       <c r="G588" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H588" s="3" t="s">
+      <c r="H588" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I588" s="3" t="s">
@@ -26454,7 +26457,7 @@
       <c r="G589" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H589" s="3" t="s">
+      <c r="H589" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I589" s="3" t="s">
@@ -26585,7 +26588,7 @@
       <c r="G593" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H593" s="3" t="s">
+      <c r="H593" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I593" s="3" t="s">
@@ -26716,7 +26719,7 @@
       <c r="G597" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H597" s="3" t="s">
+      <c r="H597" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I597" s="3" t="s">
@@ -26783,7 +26786,7 @@
       <c r="G599" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H599" s="3" t="s">
+      <c r="H599" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I599" s="3" t="s">
@@ -26818,7 +26821,7 @@
       <c r="G600" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H600" s="3" t="s">
+      <c r="H600" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I600" s="3" t="s">
@@ -26885,7 +26888,7 @@
       <c r="G602" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H602" s="3" t="s">
+      <c r="H602" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I602" s="3" t="s">
@@ -27048,7 +27051,7 @@
       <c r="G607" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H607" s="3" t="s">
+      <c r="H607" s="11" t="s">
         <v>785</v>
       </c>
       <c r="I607" s="3" t="s">
@@ -27211,7 +27214,7 @@
       <c r="G612" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H612" s="3" t="s">
+      <c r="H612" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I612" s="3" t="s">
@@ -27310,7 +27313,7 @@
       <c r="G615" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H615" s="3" t="s">
+      <c r="H615" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I615" s="3" t="s">
@@ -27345,7 +27348,7 @@
       <c r="G616" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H616" s="3" t="s">
+      <c r="H616" s="11" t="s">
         <v>1188</v>
       </c>
       <c r="I616" s="3" t="s">
@@ -27412,7 +27415,7 @@
       <c r="G618" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H618" s="3" t="s">
+      <c r="H618" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I618" s="3" t="s">
@@ -27508,7 +27511,7 @@
       <c r="G621" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H621" s="3" t="s">
+      <c r="H621" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I621" s="3" t="s">
@@ -27671,7 +27674,7 @@
       <c r="G626" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H626" s="3" t="s">
+      <c r="H626" s="11" t="s">
         <v>1197</v>
       </c>
       <c r="I626" s="3" t="s">
@@ -27706,7 +27709,7 @@
       <c r="G627" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H627" s="3" t="s">
+      <c r="H627" s="11" t="s">
         <v>1198</v>
       </c>
       <c r="I627" s="3" t="s">
@@ -27805,7 +27808,7 @@
       <c r="G630" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H630" s="3" t="s">
+      <c r="H630" s="11" t="s">
         <v>657</v>
       </c>
       <c r="I630" s="3" t="s">
@@ -27872,7 +27875,7 @@
       <c r="G632" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H632" s="3" t="s">
+      <c r="H632" s="11" t="s">
         <v>1199</v>
       </c>
       <c r="I632" s="3" t="s">
@@ -27971,7 +27974,7 @@
       <c r="G635" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H635" s="3" t="s">
+      <c r="H635" s="11" t="s">
         <v>1199</v>
       </c>
       <c r="I635" s="3" t="s">
@@ -28006,7 +28009,7 @@
       <c r="G636" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H636" s="3" t="s">
+      <c r="H636" s="11" t="s">
         <v>1188</v>
       </c>
       <c r="I636" s="3" t="s">
@@ -28073,7 +28076,7 @@
       <c r="G638" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H638" s="3" t="s">
+      <c r="H638" s="11" t="s">
         <v>565</v>
       </c>
       <c r="I638" s="3" t="s">
@@ -28108,7 +28111,7 @@
       <c r="G639" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H639" s="3" t="s">
+      <c r="H639" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I639" s="3" t="s">
@@ -28143,7 +28146,7 @@
       <c r="G640" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H640" s="3" t="s">
+      <c r="H640" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I640" s="3" t="s">
@@ -28274,7 +28277,7 @@
       <c r="G644" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H644" s="3" t="s">
+      <c r="H644" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I644" s="3" t="s">
@@ -28402,7 +28405,7 @@
       <c r="G648" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H648" s="3" t="s">
+      <c r="H648" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I648" s="3" t="s">
@@ -28469,7 +28472,7 @@
       <c r="G650" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H650" s="3" t="s">
+      <c r="H650" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I650" s="3" t="s">
@@ -28536,7 +28539,7 @@
       <c r="G652" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H652" s="3" t="s">
+      <c r="H652" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I652" s="3" t="s">
@@ -28891,7 +28894,7 @@
       <c r="G663" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H663" s="3" t="s">
+      <c r="H663" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I663" s="3" t="s">
@@ -28990,7 +28993,7 @@
       <c r="G666" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H666" s="3" t="s">
+      <c r="H666" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I666" s="3" t="s">
@@ -29025,7 +29028,7 @@
       <c r="G667" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H667" s="3" t="s">
+      <c r="H667" s="11" t="s">
         <v>1188</v>
       </c>
       <c r="I667" s="3" t="s">
@@ -29188,7 +29191,7 @@
       <c r="G672" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H672" s="3" t="s">
+      <c r="H672" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I672" s="3" t="s">
@@ -29284,7 +29287,7 @@
       <c r="G675" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H675" s="3" t="s">
+      <c r="H675" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I675" s="3" t="s">
@@ -29639,7 +29642,7 @@
       <c r="G686" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H686" s="3" t="s">
+      <c r="H686" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I686" s="3" t="s">
@@ -29738,7 +29741,7 @@
       <c r="G689" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H689" s="3" t="s">
+      <c r="H689" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I689" s="3" t="s">
@@ -29805,7 +29808,7 @@
       <c r="G691" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H691" s="3" t="s">
+      <c r="H691" s="11" t="s">
         <v>1188</v>
       </c>
       <c r="I691" s="3" t="s">
@@ -30000,7 +30003,7 @@
       <c r="G697" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H697" s="3" t="s">
+      <c r="H697" s="11" t="s">
         <v>565</v>
       </c>
       <c r="I697" s="3" t="s">
@@ -30067,7 +30070,7 @@
       <c r="G699" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H699" s="3" t="s">
+      <c r="H699" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I699" s="3" t="s">
@@ -30102,7 +30105,7 @@
       <c r="G700" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H700" s="3" t="s">
+      <c r="H700" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I700" s="3" t="s">
@@ -30233,7 +30236,7 @@
       <c r="G704" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H704" s="3" t="s">
+      <c r="H704" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I704" s="3" t="s">
@@ -30361,7 +30364,7 @@
       <c r="G708" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H708" s="3" t="s">
+      <c r="H708" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I708" s="3" t="s">
@@ -30428,7 +30431,7 @@
       <c r="G710" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H710" s="3" t="s">
+      <c r="H710" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I710" s="3" t="s">
@@ -30495,7 +30498,7 @@
       <c r="G712" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H712" s="3" t="s">
+      <c r="H712" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I712" s="3" t="s">
@@ -30850,7 +30853,7 @@
       <c r="G723" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H723" s="3" t="s">
+      <c r="H723" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I723" s="3" t="s">
@@ -30949,7 +30952,7 @@
       <c r="G726" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H726" s="3" t="s">
+      <c r="H726" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I726" s="3" t="s">
@@ -31016,7 +31019,7 @@
       <c r="G728" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H728" s="3" t="s">
+      <c r="H728" s="11" t="s">
         <v>1188</v>
       </c>
       <c r="I728" s="3" t="s">
@@ -31179,7 +31182,7 @@
       <c r="G733" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H733" s="3" t="s">
+      <c r="H733" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I733" s="3" t="s">
@@ -31214,7 +31217,7 @@
       <c r="G734" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H734" s="3" t="s">
+      <c r="H734" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I734" s="3" t="s">
@@ -31345,7 +31348,7 @@
       <c r="G738" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H738" s="3" t="s">
+      <c r="H738" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I738" s="3" t="s">
@@ -31473,7 +31476,7 @@
       <c r="G742" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H742" s="3" t="s">
+      <c r="H742" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I742" s="3" t="s">
@@ -31572,7 +31575,7 @@
       <c r="G745" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H745" s="3" t="s">
+      <c r="H745" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I745" s="3" t="s">
@@ -31927,7 +31930,7 @@
       <c r="G756" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H756" s="3" t="s">
+      <c r="H756" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I756" s="3" t="s">
@@ -32026,7 +32029,7 @@
       <c r="G759" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H759" s="3" t="s">
+      <c r="H759" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I759" s="3" t="s">
@@ -32061,7 +32064,7 @@
       <c r="G760" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H760" s="3" t="s">
+      <c r="H760" s="11" t="s">
         <v>1188</v>
       </c>
       <c r="I760" s="3" t="s">
@@ -32256,7 +32259,7 @@
       <c r="G766" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H766" s="3" t="s">
+      <c r="H766" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I766" s="3" t="s">
@@ -32291,7 +32294,7 @@
       <c r="G767" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H767" s="3" t="s">
+      <c r="H767" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I767" s="3" t="s">
@@ -32454,7 +32457,7 @@
       <c r="G772" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H772" s="3" t="s">
+      <c r="H772" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I772" s="3" t="s">
@@ -32489,7 +32492,7 @@
       <c r="G773" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H773" s="3" t="s">
+      <c r="H773" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I773" s="3" t="s">
@@ -32620,7 +32623,7 @@
       <c r="G777" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H777" s="3" t="s">
+      <c r="H777" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I777" s="3" t="s">
@@ -32687,7 +32690,7 @@
       <c r="G779" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H779" s="3" t="s">
+      <c r="H779" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I779" s="3" t="s">
@@ -32722,7 +32725,7 @@
       <c r="G780" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H780" s="3" t="s">
+      <c r="H780" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I780" s="3" t="s">
@@ -32789,7 +32792,7 @@
       <c r="G782" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H782" s="3" t="s">
+      <c r="H782" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I782" s="3" t="s">
@@ -33080,7 +33083,7 @@
       <c r="G791" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H791" s="3" t="s">
+      <c r="H791" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I791" s="3" t="s">
@@ -33179,7 +33182,7 @@
       <c r="G794" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H794" s="3" t="s">
+      <c r="H794" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I794" s="3" t="s">
@@ -33214,7 +33217,7 @@
       <c r="G795" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H795" s="3" t="s">
+      <c r="H795" s="11" t="s">
         <v>1188</v>
       </c>
       <c r="I795" s="3" t="s">
@@ -33313,7 +33316,7 @@
       <c r="G798" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H798" s="3" t="s">
+      <c r="H798" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I798" s="3" t="s">
@@ -33348,7 +33351,7 @@
       <c r="G799" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H799" s="3" t="s">
+      <c r="H799" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I799" s="3" t="s">
@@ -33415,7 +33418,7 @@
       <c r="G801" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H801" s="3" t="s">
+      <c r="H801" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I801" s="3" t="s">
@@ -33642,7 +33645,7 @@
       <c r="G808" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H808" s="3" t="s">
+      <c r="H808" s="11" t="s">
         <v>1782</v>
       </c>
       <c r="I808" s="3" t="s">
@@ -33677,7 +33680,7 @@
       <c r="G809" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H809" s="3" t="s">
+      <c r="H809" s="11" t="s">
         <v>1785</v>
       </c>
       <c r="I809" s="3" t="s">
@@ -33744,7 +33747,7 @@
       <c r="G811" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H811" s="3" t="s">
+      <c r="H811" s="11" t="s">
         <v>1789</v>
       </c>
       <c r="I811" s="3" t="s">
@@ -33811,7 +33814,7 @@
       <c r="G813" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H813" s="3" t="s">
+      <c r="H813" s="11" t="s">
         <v>565</v>
       </c>
       <c r="I813" s="3" t="s">
@@ -33846,7 +33849,7 @@
       <c r="G814" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H814" s="3" t="s">
+      <c r="H814" s="11" t="s">
         <v>1795</v>
       </c>
       <c r="I814" s="3" t="s">
@@ -33881,7 +33884,7 @@
       <c r="G815" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H815" s="3" t="s">
+      <c r="H815" s="11" t="s">
         <v>1798</v>
       </c>
       <c r="I815" s="3" t="s">
@@ -33916,7 +33919,7 @@
       <c r="G816" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H816" s="3" t="s">
+      <c r="H816" s="11" t="s">
         <v>1800</v>
       </c>
       <c r="I816" s="3" t="s">
@@ -33951,7 +33954,7 @@
       <c r="G817" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H817" s="3" t="s">
+      <c r="H817" s="11" t="s">
         <v>1803</v>
       </c>
       <c r="I817" s="3" t="s">
@@ -33986,7 +33989,7 @@
       <c r="G818" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H818" s="3" t="s">
+      <c r="H818" s="11" t="s">
         <v>1805</v>
       </c>
       <c r="I818" s="3" t="s">
@@ -34021,7 +34024,7 @@
       <c r="G819" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H819" s="3" t="s">
+      <c r="H819" s="11" t="s">
         <v>1807</v>
       </c>
       <c r="I819" s="3" t="s">
@@ -34056,7 +34059,7 @@
       <c r="G820" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H820" s="3" t="s">
+      <c r="H820" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I820" s="3" t="s">
@@ -34216,7 +34219,7 @@
       <c r="G825" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H825" s="3" t="s">
+      <c r="H825" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I825" s="3" t="s">
@@ -34315,7 +34318,7 @@
       <c r="G828" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H828" s="3" t="s">
+      <c r="H828" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I828" s="3" t="s">
@@ -34574,7 +34577,7 @@
       <c r="G836" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H836" s="3" t="s">
+      <c r="H836" s="11" t="s">
         <v>1852</v>
       </c>
       <c r="I836" s="3" t="s">
@@ -34609,7 +34612,7 @@
       <c r="G837" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H837" s="3" t="s">
+      <c r="H837" s="11" t="s">
         <v>1855</v>
       </c>
       <c r="I837" s="3" t="s">
@@ -34676,7 +34679,7 @@
       <c r="G839" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H839" s="3" t="s">
+      <c r="H839" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I839" s="3" t="s">
@@ -34775,7 +34778,7 @@
       <c r="G842" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H842" s="3" t="s">
+      <c r="H842" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I842" s="3" t="s">
@@ -34810,7 +34813,7 @@
       <c r="G843" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H843" s="3" t="s">
+      <c r="H843" s="11" t="s">
         <v>1188</v>
       </c>
       <c r="I843" s="3" t="s">
@@ -34909,7 +34912,7 @@
       <c r="G846" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H846" s="3" t="s">
+      <c r="H846" s="11" t="s">
         <v>1803</v>
       </c>
       <c r="I846" s="3" t="s">
@@ -34944,7 +34947,7 @@
       <c r="G847" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H847" s="3" t="s">
+      <c r="H847" s="11" t="s">
         <v>1805</v>
       </c>
       <c r="I847" s="3" t="s">
@@ -34979,7 +34982,7 @@
       <c r="G848" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H848" s="3" t="s">
+      <c r="H848" s="11" t="s">
         <v>1807</v>
       </c>
       <c r="I848" s="3" t="s">
@@ -35014,7 +35017,7 @@
       <c r="G849" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H849" s="3" t="s">
+      <c r="H849" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I849" s="3" t="s">
@@ -35174,7 +35177,7 @@
       <c r="G854" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H854" s="3" t="s">
+      <c r="H854" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I854" s="3" t="s">
@@ -35273,7 +35276,7 @@
       <c r="G857" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H857" s="3" t="s">
+      <c r="H857" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I857" s="3" t="s">
@@ -35532,7 +35535,7 @@
       <c r="G865" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H865" s="3" t="s">
+      <c r="H865" s="11" t="s">
         <v>1890</v>
       </c>
       <c r="I865" s="3" t="s">
@@ -35567,7 +35570,7 @@
       <c r="G866" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H866" s="3" t="s">
+      <c r="H866" s="11" t="s">
         <v>1893</v>
       </c>
       <c r="I866" s="3" t="s">
@@ -35698,7 +35701,7 @@
       <c r="G870" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H870" s="3" t="s">
+      <c r="H870" s="11" t="s">
         <v>1188</v>
       </c>
       <c r="I870" s="3" t="s">
@@ -35797,7 +35800,7 @@
       <c r="G873" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H873" s="3" t="s">
+      <c r="H873" s="11" t="s">
         <v>1805</v>
       </c>
       <c r="I873" s="3" t="s">
@@ -35832,7 +35835,7 @@
       <c r="G874" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H874" s="3" t="s">
+      <c r="H874" s="11" t="s">
         <v>1807</v>
       </c>
       <c r="I874" s="3" t="s">
@@ -35867,7 +35870,7 @@
       <c r="G875" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H875" s="3" t="s">
+      <c r="H875" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I875" s="3" t="s">
@@ -36027,7 +36030,7 @@
       <c r="G880" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H880" s="3" t="s">
+      <c r="H880" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I880" s="3" t="s">
@@ -36126,7 +36129,7 @@
       <c r="G883" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H883" s="3" t="s">
+      <c r="H883" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I883" s="3" t="s">
@@ -36481,7 +36484,7 @@
       <c r="G894" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H894" s="3" t="s">
+      <c r="H894" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I894" s="3" t="s">
@@ -36580,7 +36583,7 @@
       <c r="G897" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H897" s="3" t="s">
+      <c r="H897" s="11" t="s">
         <v>473</v>
       </c>
       <c r="I897" s="3" t="s">
@@ -36615,7 +36618,7 @@
       <c r="G898" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H898" s="3" t="s">
+      <c r="H898" s="11" t="s">
         <v>1188</v>
       </c>
       <c r="I898" s="3" t="s">
@@ -36682,7 +36685,7 @@
       <c r="G900" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H900" s="3" t="s">
+      <c r="H900" s="11" t="s">
         <v>565</v>
       </c>
       <c r="I900" s="3" t="s">
@@ -36717,7 +36720,7 @@
       <c r="G901" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H901" s="3" t="s">
+      <c r="H901" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I901" s="3" t="s">
@@ -36880,7 +36883,7 @@
       <c r="G906" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H906" s="3" t="s">
+      <c r="H906" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I906" s="3" t="s">
@@ -36976,7 +36979,7 @@
       <c r="G909" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H909" s="3" t="s">
+      <c r="H909" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I909" s="3" t="s">
@@ -37299,7 +37302,7 @@
       <c r="G919" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H919" s="3" t="s">
+      <c r="H919" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I919" s="3" t="s">
@@ -37462,7 +37465,7 @@
       <c r="G924" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H924" s="3" t="s">
+      <c r="H924" s="11" t="s">
         <v>700</v>
       </c>
       <c r="I924" s="3" t="s">
@@ -37529,7 +37532,7 @@
       <c r="G926" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H926" s="3" t="s">
+      <c r="H926" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I926" s="3" t="s">
@@ -37820,7 +37823,7 @@
       <c r="G935" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H935" s="3" t="s">
+      <c r="H935" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I935" s="3" t="s">
@@ -37919,7 +37922,7 @@
       <c r="G938" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H938" s="3" t="s">
+      <c r="H938" s="11" t="s">
         <v>1194</v>
       </c>
       <c r="I938" s="3" t="s">
@@ -38082,7 +38085,7 @@
       <c r="G943" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H943" s="3" t="s">
+      <c r="H943" s="11" t="s">
         <v>2237</v>
       </c>
       <c r="I943" s="3" t="s">
@@ -38181,7 +38184,7 @@
       <c r="G946" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H946" s="3" t="s">
+      <c r="H946" s="11" t="s">
         <v>1156</v>
       </c>
       <c r="I946" s="3" t="s">
@@ -38216,7 +38219,7 @@
       <c r="G947" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H947" s="3" t="s">
+      <c r="H947" s="11" t="s">
         <v>324</v>
       </c>
       <c r="I947" s="3" t="s">
@@ -38283,7 +38286,7 @@
       <c r="G949" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H949" s="3" t="s">
+      <c r="H949" s="11" t="s">
         <v>1920</v>
       </c>
       <c r="I949" s="3" t="s">
@@ -38443,7 +38446,7 @@
       <c r="G954" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H954" s="3" t="s">
+      <c r="H954" s="11" t="s">
         <v>745</v>
       </c>
       <c r="J954" s="3" t="s">
@@ -38562,7 +38565,7 @@
       <c r="G958" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H958" s="3" t="s">
+      <c r="H958" s="11" t="s">
         <v>20</v>
       </c>
       <c r="J958" s="3" t="s">
@@ -38652,7 +38655,7 @@
       <c r="G961" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H961" s="3" t="s">
+      <c r="H961" s="11" t="s">
         <v>745</v>
       </c>
       <c r="J961" s="3" t="s">
@@ -38898,9 +38901,26 @@
   <sheetProtection formatCells="0" formatColumns="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:L969" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
-    <customSheetView guid="{82D46257-41BF-4117-B40B-1A01981D3099}" printArea="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:N1048576"/>
+    <customSheetView guid="{856B09C9-8B94-4346-8227-95762479F1DB}" showPageBreaks="1" printArea="1" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A874" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A999" sqref="A999"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <printOptions horizontalCentered="1" gridLines="1"/>
+      <pageSetup scale="58" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+      <headerFooter>
+        <oddHeader>&amp;R&amp;"Arial,Bold"CDISC SDTM Implementation Guide (Version 3.1.3)</oddHeader>
+        <oddFooter>&amp;L&amp;8Page &amp;P_x000D_July 16, 2012&amp;R&amp;8© 2012 Clinical Data Interchange Standards Consortium, Inc. All rights reserved _x000D_Final_x000D_</oddFooter>
+      </headerFooter>
+      <autoFilter ref="B1:N1" xr:uid="{00000000-0000-0000-0000-000000000000}">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="notEqual" val=" "/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{9CA9EE55-9E60-CF4D-8BDE-A47B53F67DC9}" scale="75" showAutoFilter="1" hiddenColumns="1">
+      <selection activeCell="F35" sqref="F35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <printOptions horizontalCentered="1" gridLines="1"/>
       <pageSetup scale="58" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -38921,8 +38941,9 @@
       </headerFooter>
       <autoFilter ref="B1:M1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{9CA9EE55-9E60-CF4D-8BDE-A47B53F67DC9}" scale="75" showAutoFilter="1" hiddenColumns="1">
-      <selection activeCell="F35" sqref="F35"/>
+    <customSheetView guid="{82D46257-41BF-4117-B40B-1A01981D3099}" printArea="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:N1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <printOptions horizontalCentered="1" gridLines="1"/>
       <pageSetup scale="58" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -38931,24 +38952,6 @@
         <oddFooter>&amp;L&amp;8Page &amp;P_x000D_July 16, 2012&amp;R&amp;8© 2012 Clinical Data Interchange Standards Consortium, Inc. All rights reserved _x000D_Final_x000D_</oddFooter>
       </headerFooter>
       <autoFilter ref="B1:M1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
-    </customSheetView>
-    <customSheetView guid="{856B09C9-8B94-4346-8227-95762479F1DB}" showPageBreaks="1" printArea="1" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A874" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A999" sqref="A999"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <printOptions horizontalCentered="1" gridLines="1"/>
-      <pageSetup scale="58" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
-      <headerFooter>
-        <oddHeader>&amp;R&amp;"Arial,Bold"CDISC SDTM Implementation Guide (Version 3.1.3)</oddHeader>
-        <oddFooter>&amp;L&amp;8Page &amp;P_x000D_July 16, 2012&amp;R&amp;8© 2012 Clinical Data Interchange Standards Consortium, Inc. All rights reserved _x000D_Final_x000D_</oddFooter>
-      </headerFooter>
-      <autoFilter ref="B1:N1" xr:uid="{00000000-0000-0000-0000-000000000000}">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="notEqual" val=" "/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -40006,7 +40009,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{82D46257-41BF-4117-B40B-1A01981D3099}">
+    <customSheetView guid="{856B09C9-8B94-4346-8227-95762479F1DB}">
+      <selection activeCell="D17" sqref="D17"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+    </customSheetView>
+    <customSheetView guid="{9CA9EE55-9E60-CF4D-8BDE-A47B53F67DC9}">
       <selection activeCell="D17" sqref="D17"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
@@ -40016,12 +40024,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
     </customSheetView>
-    <customSheetView guid="{9CA9EE55-9E60-CF4D-8BDE-A47B53F67DC9}">
-      <selection activeCell="D17" sqref="D17"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
-    </customSheetView>
-    <customSheetView guid="{856B09C9-8B94-4346-8227-95762479F1DB}">
+    <customSheetView guid="{82D46257-41BF-4117-B40B-1A01981D3099}">
       <selection activeCell="D17" sqref="D17"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>

--- a/db/load/cdisc/sdtm_ig/sdtm_ig_3-1-3.xlsx
+++ b/db/load/cdisc/sdtm_ig/sdtm_ig_3-1-3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/sdtm_ig/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/car/Documents/rails/Glandon/db/load/cdisc/sdtm_ig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65D58B6-5C1F-1B44-B3C5-431F7896C3B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CBE102-121B-7940-A0C5-43D0FF3711A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="460" windowWidth="36000" windowHeight="20240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="-17860" windowWidth="28800" windowHeight="15660" tabRatio="860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDTM 1.3 SDTMIG 3.1.3" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,10 @@
   </definedNames>
   <calcPr calcId="140001"/>
   <customWorkbookViews>
+    <customWorkbookView name="Anthony Chow - Personal View" guid="{82D46257-41BF-4117-B40B-1A01981D3099}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1688" yWindow="-8" windowWidth="1696" windowHeight="1036" tabRatio="860" activeSheetId="1"/>
+    <customWorkbookView name="Amy - Personal View" guid="{3D2B6433-1329-44FB-B7DE-D24CF7109B21}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1362" windowHeight="538" tabRatio="860" activeSheetId="1"/>
+    <customWorkbookView name="Wayne Kubick - Personal View" guid="{9CA9EE55-9E60-CF4D-8BDE-A47B53F67DC9}" mergeInterval="0" personalView="1" xWindow="407" yWindow="54" windowWidth="1037" windowHeight="722" tabRatio="860" activeSheetId="1"/>
     <customWorkbookView name="jchason - Personal View" guid="{856B09C9-8B94-4346-8227-95762479F1DB}" mergeInterval="0" personalView="1" xWindow="47" windowWidth="1871" windowHeight="1040" tabRatio="860" activeSheetId="1"/>
-    <customWorkbookView name="Wayne Kubick - Personal View" guid="{9CA9EE55-9E60-CF4D-8BDE-A47B53F67DC9}" mergeInterval="0" personalView="1" xWindow="407" yWindow="54" windowWidth="1037" windowHeight="722" tabRatio="860" activeSheetId="1"/>
-    <customWorkbookView name="Amy - Personal View" guid="{3D2B6433-1329-44FB-B7DE-D24CF7109B21}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1362" windowHeight="538" tabRatio="860" activeSheetId="1"/>
-    <customWorkbookView name="Anthony Chow - Personal View" guid="{82D46257-41BF-4117-B40B-1A01981D3099}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1688" yWindow="-8" windowWidth="1696" windowHeight="1036" tabRatio="860" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8977" uniqueCount="2389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8982" uniqueCount="2390">
   <si>
     <t>Contains the finding for all questions or sub-scores, copied or derived from QSORRES in a standard format or standard units. QSSTRESC should store all findings in character format; if findings are numeric, they should also be stored in numeric format in QSSTRESN. If question scores are derived from the original finding, then the standard format is the score. Examples: 0, 1. When sponsors apply codelist to indicate the code values are statistically meaningful standardized scores, which are defined by sponsors or by valid methodologies such as SF36 questionnaires, QSORRES will contain the decode format, and QSSTRESC and QSSTRESN may contain the standardized code values or scores.</t>
   </si>
@@ -7280,12 +7280,15 @@
   <si>
     <t>Variable Name (minus domain prefix)</t>
   </si>
+  <si>
+    <t>Supplemental Qualifiers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -7327,15 +7330,30 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7358,6 +7376,11 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -7394,7 +7417,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="84">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7479,8 +7502,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -7511,8 +7535,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="84" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="84">
+  <cellStyles count="85">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -7554,6 +7581,7 @@
     <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="84" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -8003,7 +8031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S969"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
+    <sheetView topLeftCell="A396" workbookViewId="0">
       <selection activeCell="H407" sqref="H407"/>
     </sheetView>
   </sheetViews>
@@ -38901,6 +38929,40 @@
   <sheetProtection formatCells="0" formatColumns="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:L969" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
+    <customSheetView guid="{82D46257-41BF-4117-B40B-1A01981D3099}" printArea="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:N1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <printOptions horizontalCentered="1" gridLines="1"/>
+      <pageSetup scale="58" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+      <headerFooter>
+        <oddHeader>&amp;R&amp;"Arial,Bold"CDISC SDTM Implementation Guide (Version 3.1.3)</oddHeader>
+        <oddFooter>&amp;L&amp;8Page &amp;P_x000D_July 16, 2012&amp;R&amp;8© 2012 Clinical Data Interchange Standards Consortium, Inc. All rights reserved _x000D_Final_x000D_</oddFooter>
+      </headerFooter>
+      <autoFilter ref="B1:M1" xr:uid="{7E907087-131F-A44B-A478-2A5440F23C93}"/>
+    </customSheetView>
+    <customSheetView guid="{3D2B6433-1329-44FB-B7DE-D24CF7109B21}" scale="75" showPageBreaks="1" printArea="1" showAutoFilter="1" hiddenColumns="1" topLeftCell="A29">
+      <selection activeCell="F35" sqref="F35"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <printOptions horizontalCentered="1" gridLines="1"/>
+      <pageSetup scale="58" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+      <headerFooter>
+        <oddHeader>&amp;R&amp;"Arial,Bold"CDISC SDTM Implementation Guide (Version 3.1.3)</oddHeader>
+        <oddFooter>&amp;L&amp;8Page &amp;P_x000D_July 16, 2012&amp;R&amp;8© 2012 Clinical Data Interchange Standards Consortium, Inc. All rights reserved _x000D_Final_x000D_</oddFooter>
+      </headerFooter>
+      <autoFilter ref="B1:M1" xr:uid="{B84C1002-F41F-6645-AEFF-1001D0B60FA5}"/>
+    </customSheetView>
+    <customSheetView guid="{9CA9EE55-9E60-CF4D-8BDE-A47B53F67DC9}" scale="75" showAutoFilter="1" hiddenColumns="1">
+      <selection activeCell="F35" sqref="F35"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <printOptions horizontalCentered="1" gridLines="1"/>
+      <pageSetup scale="58" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+      <headerFooter>
+        <oddHeader>&amp;R&amp;"Arial,Bold"CDISC SDTM Implementation Guide (Version 3.1.3)</oddHeader>
+        <oddFooter>&amp;L&amp;8Page &amp;P_x000D_July 16, 2012&amp;R&amp;8© 2012 Clinical Data Interchange Standards Consortium, Inc. All rights reserved _x000D_Final_x000D_</oddFooter>
+      </headerFooter>
+      <autoFilter ref="B1:M1" xr:uid="{67870BB0-1AE2-7043-9D35-07EA6CDF9557}"/>
+    </customSheetView>
     <customSheetView guid="{856B09C9-8B94-4346-8227-95762479F1DB}" showPageBreaks="1" printArea="1" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A874" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="A999" sqref="A999"/>
@@ -38911,47 +38973,13 @@
         <oddHeader>&amp;R&amp;"Arial,Bold"CDISC SDTM Implementation Guide (Version 3.1.3)</oddHeader>
         <oddFooter>&amp;L&amp;8Page &amp;P_x000D_July 16, 2012&amp;R&amp;8© 2012 Clinical Data Interchange Standards Consortium, Inc. All rights reserved _x000D_Final_x000D_</oddFooter>
       </headerFooter>
-      <autoFilter ref="B1:N1" xr:uid="{00000000-0000-0000-0000-000000000000}">
+      <autoFilter ref="B1:N1" xr:uid="{7CE5A76F-C376-6B47-AA9F-C8CF6F999AEA}">
         <filterColumn colId="0">
           <customFilters and="1">
             <customFilter operator="notEqual" val=" "/>
           </customFilters>
         </filterColumn>
       </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{9CA9EE55-9E60-CF4D-8BDE-A47B53F67DC9}" scale="75" showAutoFilter="1" hiddenColumns="1">
-      <selection activeCell="F35" sqref="F35"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <printOptions horizontalCentered="1" gridLines="1"/>
-      <pageSetup scale="58" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
-      <headerFooter>
-        <oddHeader>&amp;R&amp;"Arial,Bold"CDISC SDTM Implementation Guide (Version 3.1.3)</oddHeader>
-        <oddFooter>&amp;L&amp;8Page &amp;P_x000D_July 16, 2012&amp;R&amp;8© 2012 Clinical Data Interchange Standards Consortium, Inc. All rights reserved _x000D_Final_x000D_</oddFooter>
-      </headerFooter>
-      <autoFilter ref="B1:M1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
-    </customSheetView>
-    <customSheetView guid="{3D2B6433-1329-44FB-B7DE-D24CF7109B21}" scale="75" showPageBreaks="1" printArea="1" showAutoFilter="1" hiddenColumns="1" topLeftCell="A29">
-      <selection activeCell="F35" sqref="F35"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <printOptions horizontalCentered="1" gridLines="1"/>
-      <pageSetup scale="58" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
-      <headerFooter>
-        <oddHeader>&amp;R&amp;"Arial,Bold"CDISC SDTM Implementation Guide (Version 3.1.3)</oddHeader>
-        <oddFooter>&amp;L&amp;8Page &amp;P_x000D_July 16, 2012&amp;R&amp;8© 2012 Clinical Data Interchange Standards Consortium, Inc. All rights reserved _x000D_Final_x000D_</oddFooter>
-      </headerFooter>
-      <autoFilter ref="B1:M1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
-    </customSheetView>
-    <customSheetView guid="{82D46257-41BF-4117-B40B-1A01981D3099}" printArea="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:N1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <printOptions horizontalCentered="1" gridLines="1"/>
-      <pageSetup scale="58" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
-      <headerFooter>
-        <oddHeader>&amp;R&amp;"Arial,Bold"CDISC SDTM Implementation Guide (Version 3.1.3)</oddHeader>
-        <oddFooter>&amp;L&amp;8Page &amp;P_x000D_July 16, 2012&amp;R&amp;8© 2012 Clinical Data Interchange Standards Consortium, Inc. All rights reserved _x000D_Final_x000D_</oddFooter>
-      </headerFooter>
-      <autoFilter ref="B1:M1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -38972,15 +39000,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.6640625" style="8" bestFit="1" customWidth="1"/>
@@ -40007,9 +40035,31 @@
         <v>2386</v>
       </c>
     </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="12" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>2389</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>2382</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{856B09C9-8B94-4346-8227-95762479F1DB}">
+    <customSheetView guid="{82D46257-41BF-4117-B40B-1A01981D3099}">
+      <selection activeCell="D17" sqref="D17"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+    </customSheetView>
+    <customSheetView guid="{3D2B6433-1329-44FB-B7DE-D24CF7109B21}" showPageBreaks="1">
       <selection activeCell="D17" sqref="D17"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
@@ -40019,12 +40069,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
     </customSheetView>
-    <customSheetView guid="{3D2B6433-1329-44FB-B7DE-D24CF7109B21}" showPageBreaks="1">
-      <selection activeCell="D17" sqref="D17"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
-    </customSheetView>
-    <customSheetView guid="{82D46257-41BF-4117-B40B-1A01981D3099}">
+    <customSheetView guid="{856B09C9-8B94-4346-8227-95762479F1DB}">
       <selection activeCell="D17" sqref="D17"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
